--- a/01_Paradigms/ER-ED/ER_ED/Trials/StimuliNeutral.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Trials/StimuliNeutral.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_COG-ER-ED\COG-ER-ED\01_Paradigms\ER-ED\ER_ED\Stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_CERED\CAD\01_Paradigms\ER-ED\ER_ED\Trials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Trigger</t>
   </si>
@@ -36,57 +36,6 @@
   </si>
   <si>
     <t>Stimuli/124.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/140.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/143.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7000.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7002.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7004.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7006.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7009.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7021.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7025.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7041.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7100.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7150.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7185.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7211.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7224.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7233.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/7235.jpg</t>
   </si>
   <si>
     <t>ImageFile</t>
@@ -408,27 +357,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -436,7 +385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -444,147 +393,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
         <v>1</v>
       </c>
     </row>

--- a/01_Paradigms/ER-ED/ER_ED/Trials/StimuliNeutral.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Trials/StimuliNeutral.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_CERED\CAD\01_Paradigms\ER-ED\ER_ED\Trials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scheffel\Scheffel\Forschung\A_Projects\2021_COG-ER-ED\COG-ER-ED\01_Paradigms\ER-ED\ER_ED\Stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Trigger</t>
   </si>
@@ -36,6 +36,57 @@
   </si>
   <si>
     <t>Stimuli/124.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/140.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/143.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7000.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7002.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7004.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7006.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7009.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7021.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7025.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7041.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7100.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7150.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7185.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7211.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7224.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7233.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/7235.jpg</t>
   </si>
   <si>
     <t>ImageFile</t>
@@ -357,27 +408,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -385,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -393,11 +444,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
         <v>1</v>
       </c>
     </row>
